--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2308723.52644695</v>
+        <v>-2311628.398594103</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>279.7305210707879</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>280.8368475739276</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>33.28762836474996</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>66.84061833647836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.3092152845939</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.37087030010275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>356.8673131456191</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>50.68035820658839</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>110.9272034736103</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>235.7412200973001</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>233.5070699423751</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.12410614894017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>119.8980673573662</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>40.88471829339221</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>31.39650288673274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>219.4517041866519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096048</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C2" t="n">
-        <v>439.7312344186087</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>660.6132081089816</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>371.1960380720209</v>
+        <v>315.5563997534828</v>
       </c>
       <c r="X4" t="n">
-        <v>143.2064871740036</v>
+        <v>87.56684885546542</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>87.56684885546542</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>504.8469194967738</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>119.0586668985295</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1670.643119699176</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>1301.680602758765</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758765</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2627.474653694302</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.883471024854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.242959763298</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.753752507634</v>
+        <v>388.6668460900271</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
         <v>71.81756957972706</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>932.7685043328746</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>932.7685043328746</v>
       </c>
       <c r="T10" t="n">
-        <v>1012.579968033858</v>
+        <v>932.7685043328746</v>
       </c>
       <c r="U10" t="n">
-        <v>723.4277916115382</v>
+        <v>932.7685043328746</v>
       </c>
       <c r="V10" t="n">
-        <v>468.7433034056513</v>
+        <v>678.0840161269878</v>
       </c>
       <c r="W10" t="n">
-        <v>468.7433034056513</v>
+        <v>388.6668460900271</v>
       </c>
       <c r="X10" t="n">
-        <v>240.753752507634</v>
+        <v>388.6668460900271</v>
       </c>
       <c r="Y10" t="n">
-        <v>240.753752507634</v>
+        <v>388.6668460900271</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5741,40 +5741,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979287</v>
@@ -6160,13 +6160,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
         <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6178,19 +6178,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345466</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,46 +7330,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>216.3441640494769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>35.04072454780369</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>73.09871788457454</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-3.109314553214431e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>85.54237070021969</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>105.401091082126</v>
       </c>
     </row>
     <row r="3">
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.2137830519971</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.213783051992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3131525023044</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>66.73277020259223</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272277</v>
+        <v>31766.15265272275</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
         <v>40357.3299845003</v>
@@ -26332,28 +26332,28 @@
         <v>40357.32998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.0884932142</v>
-      </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103920.2865912124</v>
+        <v>103920.2865912123</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,16 +26424,16 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682722</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682703</v>
       </c>
       <c r="I4" t="n">
         <v>13668.3958297762</v>
@@ -26442,16 +26442,16 @@
         <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.3958297762</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13668.39582977621</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744981.0912164436</v>
+        <v>-745445.3880084679</v>
       </c>
       <c r="C6" t="n">
         <v>-251729.4050332286</v>
@@ -26528,25 +26528,25 @@
         <v>-407533.2111270236</v>
       </c>
       <c r="E6" t="n">
-        <v>-837495.4277868959</v>
+        <v>-837530.1657123317</v>
       </c>
       <c r="F6" t="n">
-        <v>-66442.73640608955</v>
+        <v>-66477.47433152523</v>
       </c>
       <c r="G6" t="n">
-        <v>-66442.73640608958</v>
+        <v>-66477.47433152521</v>
       </c>
       <c r="H6" t="n">
-        <v>-66442.73640608955</v>
+        <v>-66477.47433152523</v>
       </c>
       <c r="I6" t="n">
-        <v>-95208.14118410915</v>
+        <v>-95208.14118410918</v>
       </c>
       <c r="J6" t="n">
         <v>-252203.6423830704</v>
       </c>
       <c r="K6" t="n">
-        <v>-75780.42319047736</v>
+        <v>-75780.42319047744</v>
       </c>
       <c r="L6" t="n">
         <v>-75780.42319047741</v>
@@ -26555,13 +26555,13 @@
         <v>-199988.9338985359</v>
       </c>
       <c r="N6" t="n">
-        <v>-95208.14118410918</v>
+        <v>-95208.14118410915</v>
       </c>
       <c r="O6" t="n">
-        <v>-75780.42319047744</v>
+        <v>-75780.42319047741</v>
       </c>
       <c r="P6" t="n">
-        <v>-75780.42319047745</v>
+        <v>-75780.42319047751</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203976</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>146.5443518171873</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>185.2970249873496</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>25.86652851786152</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>356.1956875351231</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>56.38259878544062</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>16.39642322652793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>121.1759716783078</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.1138325071134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>9.27511431042511</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>182.4881864273665</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>328.1970178368775</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>70.37821951911188</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>273.7620932913065</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,10 +36525,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,10 +37005,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
